--- a/module classe projet/ModulePrincipal/CPC.xlsx
+++ b/module classe projet/ModulePrincipal/CPC.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="CPC Mensuel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CPC Trimestriel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CPC Semestriel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CPC Annuel" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>CPC Projet Ecole</t>
   </si>
@@ -68,9 +71,6 @@
     <t>Couts d'assurance</t>
   </si>
   <si>
-    <t>Cout mm</t>
-  </si>
-  <si>
     <t>TOTAL CHARGES D'EXPLOITATION</t>
   </si>
   <si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>RESULTAT NET</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -581,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,394 +782,1008 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>200</v>
+      <c r="B11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>1200</v>
+      <c r="B12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="D13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="E13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="G13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="H13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="J13" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="K13" s="10" t="n">
-        <v>-1200</v>
+      <c r="B13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="10" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="10" t="n"/>
+      <c r="K16" s="10" t="n"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="10" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="10" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="10" t="n"/>
-      <c r="H17" s="10" t="n"/>
-      <c r="I17" s="10" t="n"/>
-      <c r="J17" s="10" t="n"/>
-      <c r="K17" s="10" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6" t="n">
+      <c r="B19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="G20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="J20" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>-1200</v>
+      <c r="B20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="9" t="s">
+      <c r="B21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="C22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="D22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="G22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="H22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="J22" s="10" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>-1200</v>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="n"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10" t="n"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="n"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/CPC.xlsx
+++ b/module classe projet/ModulePrincipal/CPC.xlsx
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1759,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/CPC.xlsx
+++ b/module classe projet/ModulePrincipal/CPC.xlsx
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="10" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E19" s="10" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="10" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E21" s="10" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="10" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1413,7 +1413,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="10" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>-150</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>-150</v>
@@ -1739,7 +1739,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="10" t="n">
-        <v>-150</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>-150</v>
+        <v>-225</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/CPC.xlsx
+++ b/module classe projet/ModulePrincipal/CPC.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>CPC Projet Ecole</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+  <si>
+    <t>CPC Projet Clinique</t>
   </si>
   <si>
     <t>M1</t>
@@ -53,13 +53,28 @@
     <t>M10</t>
   </si>
   <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
     <t>PRODUITS D'EXPLOITATION</t>
   </si>
   <si>
-    <t xml:space="preserve">Prestation de cours </t>
-  </si>
-  <si>
-    <t>Inscriptions enregistrées dans un cours</t>
+    <t>Prestation de soins médicaux</t>
+  </si>
+  <si>
+    <t>Opérations effectuées</t>
   </si>
   <si>
     <t>TOTAL PRODUITS D'EXPLOITATION</t>
@@ -68,7 +83,10 @@
     <t>CHARGES D'EXPLOITATION</t>
   </si>
   <si>
-    <t>Couts d'assurance</t>
+    <t>Cout RH</t>
+  </si>
+  <si>
+    <t>Cout mafia</t>
   </si>
   <si>
     <t>TOTAL CHARGES D'EXPLOITATION</t>
@@ -116,13 +134,22 @@
     <t>T4</t>
   </si>
   <si>
+    <t>T5</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
     <t>S2</t>
   </si>
   <si>
+    <t>S3</t>
+  </si>
+  <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -602,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,12 +637,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:16">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -646,10 +673,25 @@
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
@@ -661,10 +703,15 @@
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="n"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
@@ -676,80 +723,115 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>4400</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>4400</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>4400</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>4400</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>4400</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>4400</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>4400</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>4400</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
@@ -761,10 +843,15 @@
       <c r="I8" s="3" t="n"/>
       <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="n"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="n"/>
       <c r="C9" s="4" t="n"/>
@@ -776,365 +863,570 @@
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
       <c r="K9" s="4" t="n"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="4" t="n"/>
+      <c r="N9" s="4" t="n"/>
+      <c r="O9" s="4" t="n"/>
+      <c r="P9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="N13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="O13" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="P13" s="10" t="n">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="10" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="10" t="n"/>
+      <c r="K17" s="10" t="n"/>
+      <c r="L17" s="10" t="n"/>
+      <c r="M17" s="10" t="n"/>
+      <c r="N17" s="10" t="n"/>
+      <c r="O17" s="10" t="n"/>
+      <c r="P17" s="10" t="n"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>183</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="10" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="10" t="n"/>
-      <c r="G16" s="10" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="K16" s="10" t="n"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>-150</v>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>3980</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>4040</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>4040</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>4040</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>4100</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>4100</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>4100</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="M20" s="10" t="n">
+        <v>3977</v>
+      </c>
+      <c r="N20" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="O20" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="P20" s="10" t="n">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11" t="n">
+        <v>4901.7</v>
+      </c>
+      <c r="N21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>3980</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>4040</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>4040</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>4040</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>4100</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>4100</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="M22" s="10" t="n">
+        <v>-924.6999999999998</v>
+      </c>
+      <c r="N22" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="O22" s="10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="P22" s="10" t="n">
+        <v>2867</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,273 +1448,336 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n"/>
       <c r="E4" s="3" t="n"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>13200</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13200</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="n"/>
       <c r="C9" s="4" t="n"/>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="4" t="n"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>660</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>660</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>660</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>660</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>720</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>720</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>720</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>720</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>12480</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>12480</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>12480</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>12480</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="10" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <v>-75</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="B14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <v>-75</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10" t="n">
-        <v>-150</v>
+      <c r="B16" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>360</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>183</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>12120</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>12300</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>12297</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>12430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>4901.7</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>12120</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>12300</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>7395.3</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>11187</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,187 +1799,244 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>26400</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>26400</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="n"/>
       <c r="C9" s="4" t="n"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>24960</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>24960</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="10" t="n"/>
-      <c r="C16" s="10" t="n"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <v>-75</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="B14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <v>-75</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>-150</v>
+      <c r="B16" s="6" t="n">
+        <v>540</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>183</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>24420</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>24597</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>12430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>4901.7</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>24420</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>19695.3</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>11187</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +2050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1646,144 +2058,198 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="n"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="n"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>52800</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>52800</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="n"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>240</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>2640</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>49920</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="10" t="n"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <v>-225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <v>-225</v>
+      <c r="B16" s="6" t="n">
+        <v>720</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>183</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>49017</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>12430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>4901.7</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44115.3</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>11187</v>
       </c>
     </row>
   </sheetData>
